--- a/MedicalLink/Templates/BC_PhauThuat_YeuCau.xlsx
+++ b/MedicalLink/Templates/BC_PhauThuat_YeuCau.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\PROJECT\O2S_MedicalLink\trunk\MedicalLink\bin\Debug\Templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\PROJECT\O2S_MedicalLink\trunk\MedicalLink\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="111">
   <si>
     <t>STT</t>
   </si>
@@ -348,6 +348,15 @@
   </si>
   <si>
     <t>&amp;=[DATA1].NGAY_THANHTOAN</t>
+  </si>
+  <si>
+    <t>Kỹ thuật viên hồi tỉnh</t>
+  </si>
+  <si>
+    <t>&amp;=[DATA1].KTVHOITINH_TENBS</t>
+  </si>
+  <si>
+    <t>&amp;=[DATA1].KTVHOITINH_TIEN</t>
   </si>
 </sst>
 </file>
@@ -635,55 +644,55 @@
     <xf numFmtId="0" fontId="7" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="4" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="4" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="7" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="7" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="4" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="4" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -967,10 +976,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BC14"/>
+  <dimension ref="A1:BE14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AU1" workbookViewId="0">
-      <selection activeCell="AY14" sqref="AY14:BB14"/>
+    <sheetView tabSelected="1" topLeftCell="AW1" workbookViewId="0">
+      <selection activeCell="AD9" sqref="AD9:BE9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1010,22 +1019,24 @@
     <col min="43" max="43" width="15.140625" style="9" customWidth="1"/>
     <col min="44" max="44" width="28.28515625" style="1" customWidth="1"/>
     <col min="45" max="45" width="15.140625" style="9" customWidth="1"/>
-    <col min="46" max="46" width="28.28515625" style="13" customWidth="1"/>
-    <col min="47" max="47" width="20" style="13" customWidth="1"/>
+    <col min="46" max="46" width="28.28515625" style="1" customWidth="1"/>
+    <col min="47" max="47" width="15.140625" style="9" customWidth="1"/>
     <col min="48" max="48" width="28.28515625" style="13" customWidth="1"/>
-    <col min="49" max="49" width="20" style="1" customWidth="1"/>
-    <col min="50" max="50" width="28.28515625" style="1" customWidth="1"/>
-    <col min="51" max="54" width="20" style="1" customWidth="1"/>
-    <col min="55" max="55" width="18.28515625" style="1" customWidth="1"/>
-    <col min="56" max="16384" width="9.140625" style="1"/>
+    <col min="49" max="49" width="20" style="13" customWidth="1"/>
+    <col min="50" max="50" width="28.28515625" style="13" customWidth="1"/>
+    <col min="51" max="51" width="20" style="1" customWidth="1"/>
+    <col min="52" max="52" width="28.28515625" style="1" customWidth="1"/>
+    <col min="53" max="56" width="20" style="1" customWidth="1"/>
+    <col min="57" max="57" width="18.28515625" style="1" customWidth="1"/>
+    <col min="58" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:55" s="6" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:57" s="6" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7"/>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
@@ -1056,11 +1067,12 @@
       <c r="AO2" s="10"/>
       <c r="AQ2" s="10"/>
       <c r="AS2" s="10"/>
-      <c r="AT2" s="13"/>
-      <c r="AU2" s="13"/>
+      <c r="AU2" s="10"/>
       <c r="AV2" s="13"/>
+      <c r="AW2" s="13"/>
+      <c r="AX2" s="13"/>
     </row>
-    <row r="3" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:57" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G3" s="42" t="s">
         <v>28</v>
       </c>
@@ -1073,174 +1085,178 @@
       <c r="N3" s="42"/>
       <c r="O3" s="42"/>
     </row>
-    <row r="4" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="7" spans="1:55" s="3" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="32" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="32" t="s">
+    <row r="4" spans="1:57" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="1:57" s="3" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="32" t="s">
+      <c r="C7" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="D7" s="32" t="s">
+      <c r="D7" s="35" t="s">
         <v>3</v>
       </c>
       <c r="E7" s="28" t="s">
         <v>61</v>
       </c>
       <c r="F7" s="29"/>
-      <c r="G7" s="32" t="s">
+      <c r="G7" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="H7" s="32" t="s">
+      <c r="H7" s="35" t="s">
         <v>82</v>
       </c>
-      <c r="I7" s="32" t="s">
+      <c r="I7" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="J7" s="32" t="s">
+      <c r="J7" s="35" t="s">
         <v>59</v>
       </c>
-      <c r="K7" s="44" t="s">
+      <c r="K7" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="L7" s="30" t="s">
+      <c r="L7" s="45" t="s">
         <v>57</v>
       </c>
-      <c r="M7" s="32" t="s">
+      <c r="M7" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="N7" s="32" t="s">
+      <c r="N7" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="O7" s="32" t="s">
+      <c r="O7" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="P7" s="32" t="s">
+      <c r="P7" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="Q7" s="32" t="s">
+      <c r="Q7" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="R7" s="34" t="s">
+      <c r="R7" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="S7" s="32" t="s">
+      <c r="S7" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="T7" s="34" t="s">
+      <c r="T7" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="U7" s="34" t="s">
+      <c r="U7" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="V7" s="34" t="s">
+      <c r="V7" s="31" t="s">
         <v>76</v>
       </c>
-      <c r="W7" s="34" t="s">
+      <c r="W7" s="31" t="s">
         <v>77</v>
       </c>
-      <c r="X7" s="34" t="s">
+      <c r="X7" s="31" t="s">
         <v>78</v>
       </c>
-      <c r="Y7" s="32" t="s">
+      <c r="Y7" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="Z7" s="46" t="s">
+      <c r="Z7" s="30" t="s">
         <v>66</v>
       </c>
-      <c r="AA7" s="46"/>
-      <c r="AB7" s="46"/>
-      <c r="AC7" s="46"/>
-      <c r="AD7" s="36" t="s">
+      <c r="AA7" s="30"/>
+      <c r="AB7" s="30"/>
+      <c r="AC7" s="30"/>
+      <c r="AD7" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="AE7" s="37"/>
-      <c r="AF7" s="36" t="s">
+      <c r="AE7" s="34"/>
+      <c r="AF7" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="AG7" s="37"/>
-      <c r="AH7" s="36" t="s">
+      <c r="AG7" s="34"/>
+      <c r="AH7" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="AI7" s="37"/>
-      <c r="AJ7" s="36" t="s">
+      <c r="AI7" s="34"/>
+      <c r="AJ7" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="AK7" s="37"/>
-      <c r="AL7" s="36" t="s">
+      <c r="AK7" s="34"/>
+      <c r="AL7" s="33" t="s">
         <v>85</v>
       </c>
-      <c r="AM7" s="37"/>
-      <c r="AN7" s="36" t="s">
+      <c r="AM7" s="34"/>
+      <c r="AN7" s="33" t="s">
         <v>86</v>
       </c>
-      <c r="AO7" s="37"/>
-      <c r="AP7" s="36" t="s">
+      <c r="AO7" s="34"/>
+      <c r="AP7" s="33" t="s">
         <v>87</v>
       </c>
-      <c r="AQ7" s="37"/>
-      <c r="AR7" s="36" t="s">
+      <c r="AQ7" s="34"/>
+      <c r="AR7" s="33" t="s">
+        <v>108</v>
+      </c>
+      <c r="AS7" s="34"/>
+      <c r="AT7" s="33" t="s">
         <v>88</v>
       </c>
-      <c r="AS7" s="37"/>
-      <c r="AT7" s="36" t="s">
+      <c r="AU7" s="34"/>
+      <c r="AV7" s="33" t="s">
         <v>89</v>
       </c>
-      <c r="AU7" s="37"/>
-      <c r="AV7" s="28" t="s">
+      <c r="AW7" s="34"/>
+      <c r="AX7" s="28" t="s">
         <v>90</v>
       </c>
-      <c r="AW7" s="29"/>
-      <c r="AX7" s="28" t="s">
+      <c r="AY7" s="29"/>
+      <c r="AZ7" s="28" t="s">
         <v>91</v>
       </c>
-      <c r="AY7" s="29"/>
-      <c r="AZ7" s="30" t="s">
+      <c r="BA7" s="29"/>
+      <c r="BB7" s="45" t="s">
         <v>21</v>
       </c>
-      <c r="BA7" s="30" t="s">
+      <c r="BC7" s="45" t="s">
         <v>22</v>
       </c>
-      <c r="BB7" s="30" t="s">
+      <c r="BD7" s="45" t="s">
         <v>23</v>
       </c>
-      <c r="BC7" s="30" t="s">
+      <c r="BE7" s="45" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="8" spans="1:55" s="25" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="33"/>
-      <c r="B8" s="33"/>
-      <c r="C8" s="33"/>
-      <c r="D8" s="33"/>
+    <row r="8" spans="1:57" s="25" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="36"/>
+      <c r="B8" s="36"/>
+      <c r="C8" s="36"/>
+      <c r="D8" s="36"/>
       <c r="E8" s="22" t="s">
         <v>62</v>
       </c>
       <c r="F8" s="22" t="s">
         <v>63</v>
       </c>
-      <c r="G8" s="33"/>
-      <c r="H8" s="33"/>
-      <c r="I8" s="33"/>
-      <c r="J8" s="33"/>
-      <c r="K8" s="45"/>
-      <c r="L8" s="31"/>
-      <c r="M8" s="33"/>
-      <c r="N8" s="33"/>
-      <c r="O8" s="33"/>
-      <c r="P8" s="33"/>
-      <c r="Q8" s="33"/>
-      <c r="R8" s="35"/>
-      <c r="S8" s="33"/>
-      <c r="T8" s="35"/>
-      <c r="U8" s="35"/>
-      <c r="V8" s="35"/>
-      <c r="W8" s="35"/>
-      <c r="X8" s="35"/>
-      <c r="Y8" s="33"/>
+      <c r="G8" s="36"/>
+      <c r="H8" s="36"/>
+      <c r="I8" s="36"/>
+      <c r="J8" s="36"/>
+      <c r="K8" s="44"/>
+      <c r="L8" s="46"/>
+      <c r="M8" s="36"/>
+      <c r="N8" s="36"/>
+      <c r="O8" s="36"/>
+      <c r="P8" s="36"/>
+      <c r="Q8" s="36"/>
+      <c r="R8" s="32"/>
+      <c r="S8" s="36"/>
+      <c r="T8" s="32"/>
+      <c r="U8" s="32"/>
+      <c r="V8" s="32"/>
+      <c r="W8" s="32"/>
+      <c r="X8" s="32"/>
+      <c r="Y8" s="36"/>
       <c r="Z8" s="23" t="s">
         <v>67</v>
       </c>
@@ -1307,10 +1323,10 @@
       <c r="AU8" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="AV8" s="22" t="s">
-        <v>93</v>
-      </c>
-      <c r="AW8" s="22" t="s">
+      <c r="AV8" s="24" t="s">
+        <v>92</v>
+      </c>
+      <c r="AW8" s="24" t="s">
         <v>25</v>
       </c>
       <c r="AX8" s="22" t="s">
@@ -1319,12 +1335,18 @@
       <c r="AY8" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="AZ8" s="31"/>
-      <c r="BA8" s="31"/>
-      <c r="BB8" s="31"/>
-      <c r="BC8" s="31"/>
+      <c r="AZ8" s="22" t="s">
+        <v>93</v>
+      </c>
+      <c r="BA8" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="BB8" s="46"/>
+      <c r="BC8" s="46"/>
+      <c r="BD8" s="46"/>
+      <c r="BE8" s="46"/>
     </row>
-    <row r="9" spans="1:55" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:57" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="21">
         <v>1</v>
       </c>
@@ -1490,8 +1512,14 @@
       <c r="BC9" s="21">
         <v>55</v>
       </c>
+      <c r="BD9" s="21">
+        <v>56</v>
+      </c>
+      <c r="BE9" s="21">
+        <v>57</v>
+      </c>
     </row>
-    <row r="10" spans="1:55" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
         <v>30</v>
       </c>
@@ -1622,41 +1650,47 @@
         <v>99</v>
       </c>
       <c r="AR10" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AS10" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="AT10" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="AS10" s="2" t="s">
+      <c r="AU10" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="AT10" s="2" t="s">
+      <c r="AV10" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="AU10" s="27" t="s">
+      <c r="AW10" s="27" t="s">
         <v>103</v>
       </c>
-      <c r="AV10" s="2" t="s">
+      <c r="AX10" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="AW10" s="27" t="s">
+      <c r="AY10" s="27" t="s">
         <v>104</v>
       </c>
-      <c r="AX10" s="2" t="s">
+      <c r="AZ10" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="AY10" s="27" t="s">
+      <c r="BA10" s="27" t="s">
         <v>105</v>
       </c>
-      <c r="AZ10" s="14" t="s">
+      <c r="BB10" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="BA10" s="14" t="s">
+      <c r="BC10" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="BB10" s="14" t="s">
+      <c r="BD10" s="14" t="s">
         <v>107</v>
       </c>
-      <c r="BC10" s="14"/>
+      <c r="BE10" s="14"/>
     </row>
-    <row r="11" spans="1:55" s="15" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:57" s="15" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="38" t="s">
         <v>27</v>
       </c>
@@ -1758,8 +1792,8 @@
         <f>SUM(AS10:AS10)</f>
         <v>0</v>
       </c>
-      <c r="AT11" s="18"/>
-      <c r="AU11" s="26">
+      <c r="AT11" s="17"/>
+      <c r="AU11" s="17">
         <f>SUM(AU10:AU10)</f>
         <v>0</v>
       </c>
@@ -1774,21 +1808,47 @@
         <v>0</v>
       </c>
       <c r="AZ11" s="18"/>
-      <c r="BA11" s="18"/>
+      <c r="BA11" s="26">
+        <f>SUM(BA10:BA10)</f>
+        <v>0</v>
+      </c>
       <c r="BB11" s="18"/>
       <c r="BC11" s="18"/>
+      <c r="BD11" s="18"/>
+      <c r="BE11" s="18"/>
     </row>
-    <row r="14" spans="1:55" x14ac:dyDescent="0.25">
-      <c r="AY14" s="43" t="s">
+    <row r="14" spans="1:57" x14ac:dyDescent="0.25">
+      <c r="BA14" s="37" t="s">
         <v>29</v>
       </c>
-      <c r="AZ14" s="43"/>
-      <c r="BA14" s="43"/>
-      <c r="BB14" s="43"/>
+      <c r="BB14" s="37"/>
+      <c r="BC14" s="37"/>
+      <c r="BD14" s="37"/>
     </row>
   </sheetData>
-  <mergeCells count="44">
-    <mergeCell ref="AY14:BB14"/>
+  <mergeCells count="45">
+    <mergeCell ref="BC7:BC8"/>
+    <mergeCell ref="BD7:BD8"/>
+    <mergeCell ref="BE7:BE8"/>
+    <mergeCell ref="AF7:AG7"/>
+    <mergeCell ref="AD7:AE7"/>
+    <mergeCell ref="Y7:Y8"/>
+    <mergeCell ref="AX7:AY7"/>
+    <mergeCell ref="AH7:AI7"/>
+    <mergeCell ref="AL7:AM7"/>
+    <mergeCell ref="AN7:AO7"/>
+    <mergeCell ref="AP7:AQ7"/>
+    <mergeCell ref="AT7:AU7"/>
+    <mergeCell ref="AJ7:AK7"/>
+    <mergeCell ref="AR7:AS7"/>
+    <mergeCell ref="AZ7:BA7"/>
+    <mergeCell ref="BB7:BB8"/>
+    <mergeCell ref="BA14:BD14"/>
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="G2:O2"/>
+    <mergeCell ref="G3:O3"/>
+    <mergeCell ref="J7:J8"/>
+    <mergeCell ref="H7:H8"/>
     <mergeCell ref="A7:A8"/>
     <mergeCell ref="B7:B8"/>
     <mergeCell ref="C7:C8"/>
@@ -1799,39 +1859,19 @@
     <mergeCell ref="L7:L8"/>
     <mergeCell ref="M7:M8"/>
     <mergeCell ref="N7:N8"/>
-    <mergeCell ref="O7:O8"/>
     <mergeCell ref="E7:F7"/>
     <mergeCell ref="Z7:AC7"/>
     <mergeCell ref="U7:U8"/>
-    <mergeCell ref="AT7:AU7"/>
     <mergeCell ref="AV7:AW7"/>
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="G2:O2"/>
-    <mergeCell ref="G3:O3"/>
-    <mergeCell ref="J7:J8"/>
-    <mergeCell ref="H7:H8"/>
-    <mergeCell ref="AH7:AI7"/>
-    <mergeCell ref="AL7:AM7"/>
-    <mergeCell ref="AN7:AO7"/>
-    <mergeCell ref="AP7:AQ7"/>
-    <mergeCell ref="AR7:AS7"/>
-    <mergeCell ref="AJ7:AK7"/>
     <mergeCell ref="P7:P8"/>
     <mergeCell ref="R7:R8"/>
     <mergeCell ref="S7:S8"/>
     <mergeCell ref="T7:T8"/>
-    <mergeCell ref="AF7:AG7"/>
-    <mergeCell ref="AD7:AE7"/>
-    <mergeCell ref="Y7:Y8"/>
+    <mergeCell ref="O7:O8"/>
     <mergeCell ref="Q7:Q8"/>
     <mergeCell ref="V7:V8"/>
     <mergeCell ref="W7:W8"/>
     <mergeCell ref="X7:X8"/>
-    <mergeCell ref="AX7:AY7"/>
-    <mergeCell ref="AZ7:AZ8"/>
-    <mergeCell ref="BA7:BA8"/>
-    <mergeCell ref="BB7:BB8"/>
-    <mergeCell ref="BC7:BC8"/>
   </mergeCells>
   <pageMargins left="0" right="0" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" r:id="rId1"/>

--- a/MedicalLink/Templates/BC_PhauThuat_YeuCau.xlsx
+++ b/MedicalLink/Templates/BC_PhauThuat_YeuCau.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="113">
   <si>
     <t>STT</t>
   </si>
@@ -357,6 +357,12 @@
   </si>
   <si>
     <t>&amp;=[DATA1].KTVHOITINH_TIEN</t>
+  </si>
+  <si>
+    <t>Người nhập</t>
+  </si>
+  <si>
+    <t>&amp;=[DATA1].NGUOINHAPTHUCHIEN</t>
   </si>
 </sst>
 </file>
@@ -436,7 +442,7 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -461,6 +467,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="9">
     <border>
@@ -575,7 +587,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -638,12 +650,54 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="49" fontId="7" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -653,47 +707,14 @@
     <xf numFmtId="164" fontId="7" fillId="4" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -976,10 +997,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BE14"/>
+  <dimension ref="A1:BF14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AW1" workbookViewId="0">
-      <selection activeCell="AD9" sqref="AD9:BE9"/>
+    <sheetView tabSelected="1" topLeftCell="BA1" workbookViewId="0">
+      <selection activeCell="BE14" sqref="BE14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1027,30 +1048,31 @@
     <col min="51" max="51" width="20" style="1" customWidth="1"/>
     <col min="52" max="52" width="28.28515625" style="1" customWidth="1"/>
     <col min="53" max="56" width="20" style="1" customWidth="1"/>
-    <col min="57" max="57" width="18.28515625" style="1" customWidth="1"/>
-    <col min="58" max="16384" width="9.140625" style="1"/>
+    <col min="57" max="57" width="29.5703125" style="13" customWidth="1"/>
+    <col min="58" max="58" width="18.28515625" style="1" customWidth="1"/>
+    <col min="59" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:57" s="6" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:58" s="6" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7"/>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
-      <c r="G2" s="41" t="s">
+      <c r="G2" s="40" t="s">
         <v>84</v>
       </c>
-      <c r="H2" s="41"/>
-      <c r="I2" s="41"/>
-      <c r="J2" s="41"/>
-      <c r="K2" s="41"/>
-      <c r="L2" s="41"/>
-      <c r="M2" s="41"/>
-      <c r="N2" s="41"/>
-      <c r="O2" s="41"/>
+      <c r="H2" s="40"/>
+      <c r="I2" s="40"/>
+      <c r="J2" s="40"/>
+      <c r="K2" s="40"/>
+      <c r="L2" s="40"/>
+      <c r="M2" s="40"/>
+      <c r="N2" s="40"/>
+      <c r="O2" s="40"/>
       <c r="R2" s="10"/>
       <c r="T2" s="10"/>
       <c r="U2" s="10"/>
@@ -1071,192 +1093,196 @@
       <c r="AV2" s="13"/>
       <c r="AW2" s="13"/>
       <c r="AX2" s="13"/>
+      <c r="BE2" s="13"/>
     </row>
-    <row r="3" spans="1:57" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G3" s="42" t="s">
+    <row r="3" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G3" s="41" t="s">
         <v>28</v>
       </c>
-      <c r="H3" s="42"/>
-      <c r="I3" s="42"/>
-      <c r="J3" s="42"/>
-      <c r="K3" s="42"/>
-      <c r="L3" s="42"/>
-      <c r="M3" s="42"/>
-      <c r="N3" s="42"/>
-      <c r="O3" s="42"/>
+      <c r="H3" s="41"/>
+      <c r="I3" s="41"/>
+      <c r="J3" s="41"/>
+      <c r="K3" s="41"/>
+      <c r="L3" s="41"/>
+      <c r="M3" s="41"/>
+      <c r="N3" s="41"/>
+      <c r="O3" s="41"/>
     </row>
-    <row r="4" spans="1:57" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="7" spans="1:57" s="3" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="35" t="s">
+    <row r="4" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="1:58" s="3" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="35" t="s">
+      <c r="C7" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="D7" s="35" t="s">
+      <c r="D7" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="E7" s="28" t="s">
+      <c r="E7" s="34" t="s">
         <v>61</v>
       </c>
-      <c r="F7" s="29"/>
-      <c r="G7" s="35" t="s">
+      <c r="F7" s="35"/>
+      <c r="G7" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="H7" s="35" t="s">
+      <c r="H7" s="32" t="s">
         <v>82</v>
       </c>
-      <c r="I7" s="35" t="s">
+      <c r="I7" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="J7" s="35" t="s">
+      <c r="J7" s="32" t="s">
         <v>59</v>
       </c>
-      <c r="K7" s="43" t="s">
+      <c r="K7" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="L7" s="45" t="s">
+      <c r="L7" s="28" t="s">
         <v>57</v>
       </c>
-      <c r="M7" s="35" t="s">
+      <c r="M7" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="N7" s="35" t="s">
+      <c r="N7" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="O7" s="35" t="s">
+      <c r="O7" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="P7" s="35" t="s">
+      <c r="P7" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="Q7" s="35" t="s">
+      <c r="Q7" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="R7" s="31" t="s">
+      <c r="R7" s="45" t="s">
         <v>11</v>
       </c>
-      <c r="S7" s="35" t="s">
+      <c r="S7" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="T7" s="31" t="s">
+      <c r="T7" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="U7" s="31" t="s">
+      <c r="U7" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="V7" s="31" t="s">
+      <c r="V7" s="45" t="s">
         <v>76</v>
       </c>
-      <c r="W7" s="31" t="s">
+      <c r="W7" s="45" t="s">
         <v>77</v>
       </c>
-      <c r="X7" s="31" t="s">
+      <c r="X7" s="45" t="s">
         <v>78</v>
       </c>
-      <c r="Y7" s="35" t="s">
+      <c r="Y7" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="Z7" s="30" t="s">
+      <c r="Z7" s="44" t="s">
         <v>66</v>
       </c>
-      <c r="AA7" s="30"/>
-      <c r="AB7" s="30"/>
-      <c r="AC7" s="30"/>
-      <c r="AD7" s="33" t="s">
+      <c r="AA7" s="44"/>
+      <c r="AB7" s="44"/>
+      <c r="AC7" s="44"/>
+      <c r="AD7" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="AE7" s="34"/>
-      <c r="AF7" s="33" t="s">
+      <c r="AE7" s="31"/>
+      <c r="AF7" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="AG7" s="34"/>
-      <c r="AH7" s="33" t="s">
+      <c r="AG7" s="31"/>
+      <c r="AH7" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="AI7" s="34"/>
-      <c r="AJ7" s="33" t="s">
+      <c r="AI7" s="31"/>
+      <c r="AJ7" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="AK7" s="34"/>
-      <c r="AL7" s="33" t="s">
+      <c r="AK7" s="31"/>
+      <c r="AL7" s="30" t="s">
         <v>85</v>
       </c>
-      <c r="AM7" s="34"/>
-      <c r="AN7" s="33" t="s">
+      <c r="AM7" s="31"/>
+      <c r="AN7" s="30" t="s">
         <v>86</v>
       </c>
-      <c r="AO7" s="34"/>
-      <c r="AP7" s="33" t="s">
+      <c r="AO7" s="31"/>
+      <c r="AP7" s="30" t="s">
         <v>87</v>
       </c>
-      <c r="AQ7" s="34"/>
-      <c r="AR7" s="33" t="s">
+      <c r="AQ7" s="31"/>
+      <c r="AR7" s="30" t="s">
         <v>108</v>
       </c>
-      <c r="AS7" s="34"/>
-      <c r="AT7" s="33" t="s">
+      <c r="AS7" s="31"/>
+      <c r="AT7" s="30" t="s">
         <v>88</v>
       </c>
-      <c r="AU7" s="34"/>
-      <c r="AV7" s="33" t="s">
+      <c r="AU7" s="31"/>
+      <c r="AV7" s="30" t="s">
         <v>89</v>
       </c>
-      <c r="AW7" s="34"/>
-      <c r="AX7" s="28" t="s">
+      <c r="AW7" s="31"/>
+      <c r="AX7" s="34" t="s">
         <v>90</v>
       </c>
-      <c r="AY7" s="29"/>
-      <c r="AZ7" s="28" t="s">
+      <c r="AY7" s="35"/>
+      <c r="AZ7" s="34" t="s">
         <v>91</v>
       </c>
-      <c r="BA7" s="29"/>
-      <c r="BB7" s="45" t="s">
+      <c r="BA7" s="35"/>
+      <c r="BB7" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="BC7" s="45" t="s">
+      <c r="BC7" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="BD7" s="45" t="s">
+      <c r="BD7" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="BE7" s="45" t="s">
+      <c r="BE7" s="47" t="s">
+        <v>111</v>
+      </c>
+      <c r="BF7" s="28" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="8" spans="1:57" s="25" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="36"/>
-      <c r="B8" s="36"/>
-      <c r="C8" s="36"/>
-      <c r="D8" s="36"/>
+    <row r="8" spans="1:58" s="25" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="33"/>
+      <c r="B8" s="33"/>
+      <c r="C8" s="33"/>
+      <c r="D8" s="33"/>
       <c r="E8" s="22" t="s">
         <v>62</v>
       </c>
       <c r="F8" s="22" t="s">
         <v>63</v>
       </c>
-      <c r="G8" s="36"/>
-      <c r="H8" s="36"/>
-      <c r="I8" s="36"/>
-      <c r="J8" s="36"/>
-      <c r="K8" s="44"/>
-      <c r="L8" s="46"/>
-      <c r="M8" s="36"/>
-      <c r="N8" s="36"/>
-      <c r="O8" s="36"/>
-      <c r="P8" s="36"/>
-      <c r="Q8" s="36"/>
-      <c r="R8" s="32"/>
-      <c r="S8" s="36"/>
-      <c r="T8" s="32"/>
-      <c r="U8" s="32"/>
-      <c r="V8" s="32"/>
-      <c r="W8" s="32"/>
-      <c r="X8" s="32"/>
-      <c r="Y8" s="36"/>
+      <c r="G8" s="33"/>
+      <c r="H8" s="33"/>
+      <c r="I8" s="33"/>
+      <c r="J8" s="33"/>
+      <c r="K8" s="43"/>
+      <c r="L8" s="29"/>
+      <c r="M8" s="33"/>
+      <c r="N8" s="33"/>
+      <c r="O8" s="33"/>
+      <c r="P8" s="33"/>
+      <c r="Q8" s="33"/>
+      <c r="R8" s="46"/>
+      <c r="S8" s="33"/>
+      <c r="T8" s="46"/>
+      <c r="U8" s="46"/>
+      <c r="V8" s="46"/>
+      <c r="W8" s="46"/>
+      <c r="X8" s="46"/>
+      <c r="Y8" s="33"/>
       <c r="Z8" s="23" t="s">
         <v>67</v>
       </c>
@@ -1341,12 +1367,13 @@
       <c r="BA8" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="BB8" s="46"/>
-      <c r="BC8" s="46"/>
-      <c r="BD8" s="46"/>
-      <c r="BE8" s="46"/>
+      <c r="BB8" s="29"/>
+      <c r="BC8" s="29"/>
+      <c r="BD8" s="29"/>
+      <c r="BE8" s="48"/>
+      <c r="BF8" s="29"/>
     </row>
-    <row r="9" spans="1:57" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:58" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="21">
         <v>1</v>
       </c>
@@ -1518,8 +1545,11 @@
       <c r="BE9" s="21">
         <v>57</v>
       </c>
+      <c r="BF9" s="21">
+        <v>58</v>
+      </c>
     </row>
-    <row r="10" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:58" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
         <v>30</v>
       </c>
@@ -1688,15 +1718,18 @@
       <c r="BD10" s="14" t="s">
         <v>107</v>
       </c>
-      <c r="BE10" s="14"/>
+      <c r="BE10" s="49" t="s">
+        <v>112</v>
+      </c>
+      <c r="BF10" s="14"/>
     </row>
-    <row r="11" spans="1:57" s="15" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="38" t="s">
+    <row r="11" spans="1:58" s="15" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="B11" s="39"/>
-      <c r="C11" s="39"/>
-      <c r="D11" s="40"/>
+      <c r="B11" s="38"/>
+      <c r="C11" s="38"/>
+      <c r="D11" s="39"/>
       <c r="E11" s="16"/>
       <c r="F11" s="16"/>
       <c r="G11" s="17"/>
@@ -1816,33 +1849,31 @@
       <c r="BC11" s="18"/>
       <c r="BD11" s="18"/>
       <c r="BE11" s="18"/>
+      <c r="BF11" s="18"/>
     </row>
-    <row r="14" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="BA14" s="37" t="s">
+    <row r="14" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="BA14" s="36" t="s">
         <v>29</v>
       </c>
-      <c r="BB14" s="37"/>
-      <c r="BC14" s="37"/>
-      <c r="BD14" s="37"/>
+      <c r="BB14" s="36"/>
+      <c r="BC14" s="36"/>
+      <c r="BD14" s="36"/>
     </row>
   </sheetData>
-  <mergeCells count="45">
-    <mergeCell ref="BC7:BC8"/>
-    <mergeCell ref="BD7:BD8"/>
-    <mergeCell ref="BE7:BE8"/>
-    <mergeCell ref="AF7:AG7"/>
-    <mergeCell ref="AD7:AE7"/>
-    <mergeCell ref="Y7:Y8"/>
-    <mergeCell ref="AX7:AY7"/>
-    <mergeCell ref="AH7:AI7"/>
-    <mergeCell ref="AL7:AM7"/>
-    <mergeCell ref="AN7:AO7"/>
-    <mergeCell ref="AP7:AQ7"/>
-    <mergeCell ref="AT7:AU7"/>
-    <mergeCell ref="AJ7:AK7"/>
-    <mergeCell ref="AR7:AS7"/>
-    <mergeCell ref="AZ7:BA7"/>
-    <mergeCell ref="BB7:BB8"/>
+  <mergeCells count="46">
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="Z7:AC7"/>
+    <mergeCell ref="U7:U8"/>
+    <mergeCell ref="AV7:AW7"/>
+    <mergeCell ref="P7:P8"/>
+    <mergeCell ref="R7:R8"/>
+    <mergeCell ref="S7:S8"/>
+    <mergeCell ref="T7:T8"/>
+    <mergeCell ref="O7:O8"/>
+    <mergeCell ref="Q7:Q8"/>
+    <mergeCell ref="V7:V8"/>
+    <mergeCell ref="W7:W8"/>
+    <mergeCell ref="X7:X8"/>
     <mergeCell ref="BA14:BD14"/>
     <mergeCell ref="A11:D11"/>
     <mergeCell ref="G2:O2"/>
@@ -1859,19 +1890,23 @@
     <mergeCell ref="L7:L8"/>
     <mergeCell ref="M7:M8"/>
     <mergeCell ref="N7:N8"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="Z7:AC7"/>
-    <mergeCell ref="U7:U8"/>
-    <mergeCell ref="AV7:AW7"/>
-    <mergeCell ref="P7:P8"/>
-    <mergeCell ref="R7:R8"/>
-    <mergeCell ref="S7:S8"/>
-    <mergeCell ref="T7:T8"/>
-    <mergeCell ref="O7:O8"/>
-    <mergeCell ref="Q7:Q8"/>
-    <mergeCell ref="V7:V8"/>
-    <mergeCell ref="W7:W8"/>
-    <mergeCell ref="X7:X8"/>
+    <mergeCell ref="Y7:Y8"/>
+    <mergeCell ref="AX7:AY7"/>
+    <mergeCell ref="AH7:AI7"/>
+    <mergeCell ref="AL7:AM7"/>
+    <mergeCell ref="AN7:AO7"/>
+    <mergeCell ref="AP7:AQ7"/>
+    <mergeCell ref="AT7:AU7"/>
+    <mergeCell ref="AJ7:AK7"/>
+    <mergeCell ref="AR7:AS7"/>
+    <mergeCell ref="BC7:BC8"/>
+    <mergeCell ref="BD7:BD8"/>
+    <mergeCell ref="BF7:BF8"/>
+    <mergeCell ref="AF7:AG7"/>
+    <mergeCell ref="AD7:AE7"/>
+    <mergeCell ref="AZ7:BA7"/>
+    <mergeCell ref="BB7:BB8"/>
+    <mergeCell ref="BE7:BE8"/>
   </mergeCells>
   <pageMargins left="0" right="0" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" r:id="rId1"/>

--- a/MedicalLink/Templates/BC_PhauThuat_YeuCau.xlsx
+++ b/MedicalLink/Templates/BC_PhauThuat_YeuCau.xlsx
@@ -104,9 +104,6 @@
     <t>Tiền</t>
   </si>
   <si>
-    <t>BỆNH VIỆN HỮU NGHỊ VIỆT TIỆP</t>
-  </si>
-  <si>
     <t>TỔNG CỘNG</t>
   </si>
   <si>
@@ -363,6 +360,9 @@
   </si>
   <si>
     <t>&amp;=[DATA1].NGUOINHAPTHUCHIEN</t>
+  </si>
+  <si>
+    <t>&amp;=[DATA].TENBENHVIEN</t>
   </si>
 </sst>
 </file>
@@ -650,71 +650,71 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="4" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="4" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="7" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="7" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="4" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="4" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="2" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -999,8 +999,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BF14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BA1" workbookViewId="0">
-      <selection activeCell="BE14" sqref="BE14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7:D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1055,24 +1055,24 @@
   <sheetData>
     <row r="1" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
-        <v>26</v>
+        <v>112</v>
       </c>
     </row>
     <row r="2" spans="1:58" s="6" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7"/>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
-      <c r="G2" s="40" t="s">
-        <v>84</v>
-      </c>
-      <c r="H2" s="40"/>
-      <c r="I2" s="40"/>
-      <c r="J2" s="40"/>
-      <c r="K2" s="40"/>
-      <c r="L2" s="40"/>
-      <c r="M2" s="40"/>
-      <c r="N2" s="40"/>
-      <c r="O2" s="40"/>
+      <c r="G2" s="42" t="s">
+        <v>83</v>
+      </c>
+      <c r="H2" s="42"/>
+      <c r="I2" s="42"/>
+      <c r="J2" s="42"/>
+      <c r="K2" s="42"/>
+      <c r="L2" s="42"/>
+      <c r="M2" s="42"/>
+      <c r="N2" s="42"/>
+      <c r="O2" s="42"/>
       <c r="R2" s="10"/>
       <c r="T2" s="10"/>
       <c r="U2" s="10"/>
@@ -1096,204 +1096,204 @@
       <c r="BE2" s="13"/>
     </row>
     <row r="3" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G3" s="41" t="s">
-        <v>28</v>
-      </c>
-      <c r="H3" s="41"/>
-      <c r="I3" s="41"/>
-      <c r="J3" s="41"/>
-      <c r="K3" s="41"/>
-      <c r="L3" s="41"/>
-      <c r="M3" s="41"/>
-      <c r="N3" s="41"/>
-      <c r="O3" s="41"/>
+      <c r="G3" s="43" t="s">
+        <v>27</v>
+      </c>
+      <c r="H3" s="43"/>
+      <c r="I3" s="43"/>
+      <c r="J3" s="43"/>
+      <c r="K3" s="43"/>
+      <c r="L3" s="43"/>
+      <c r="M3" s="43"/>
+      <c r="N3" s="43"/>
+      <c r="O3" s="43"/>
     </row>
     <row r="4" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="7" spans="1:58" s="3" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="32" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="32" t="s">
+      <c r="A7" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="32" t="s">
+      <c r="C7" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="D7" s="32" t="s">
+      <c r="D7" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="E7" s="34" t="s">
-        <v>61</v>
-      </c>
-      <c r="F7" s="35"/>
-      <c r="G7" s="32" t="s">
+      <c r="E7" s="29" t="s">
+        <v>60</v>
+      </c>
+      <c r="F7" s="30"/>
+      <c r="G7" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="H7" s="32" t="s">
-        <v>82</v>
-      </c>
-      <c r="I7" s="32" t="s">
+      <c r="H7" s="36" t="s">
+        <v>81</v>
+      </c>
+      <c r="I7" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="J7" s="32" t="s">
-        <v>59</v>
-      </c>
-      <c r="K7" s="42" t="s">
+      <c r="J7" s="36" t="s">
+        <v>58</v>
+      </c>
+      <c r="K7" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="L7" s="28" t="s">
-        <v>57</v>
-      </c>
-      <c r="M7" s="32" t="s">
+      <c r="L7" s="46" t="s">
+        <v>56</v>
+      </c>
+      <c r="M7" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="N7" s="32" t="s">
+      <c r="N7" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="O7" s="32" t="s">
+      <c r="O7" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="P7" s="32" t="s">
+      <c r="P7" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="Q7" s="32" t="s">
+      <c r="Q7" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="R7" s="45" t="s">
+      <c r="R7" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="S7" s="32" t="s">
+      <c r="S7" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="T7" s="45" t="s">
+      <c r="T7" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="U7" s="45" t="s">
+      <c r="U7" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="V7" s="45" t="s">
+      <c r="V7" s="32" t="s">
+        <v>75</v>
+      </c>
+      <c r="W7" s="32" t="s">
         <v>76</v>
       </c>
-      <c r="W7" s="45" t="s">
+      <c r="X7" s="32" t="s">
         <v>77</v>
       </c>
-      <c r="X7" s="45" t="s">
-        <v>78</v>
-      </c>
-      <c r="Y7" s="32" t="s">
+      <c r="Y7" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="Z7" s="44" t="s">
-        <v>66</v>
-      </c>
-      <c r="AA7" s="44"/>
-      <c r="AB7" s="44"/>
-      <c r="AC7" s="44"/>
-      <c r="AD7" s="30" t="s">
+      <c r="Z7" s="31" t="s">
+        <v>65</v>
+      </c>
+      <c r="AA7" s="31"/>
+      <c r="AB7" s="31"/>
+      <c r="AC7" s="31"/>
+      <c r="AD7" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="AE7" s="31"/>
-      <c r="AF7" s="30" t="s">
+      <c r="AE7" s="35"/>
+      <c r="AF7" s="34" t="s">
         <v>18</v>
       </c>
-      <c r="AG7" s="31"/>
-      <c r="AH7" s="30" t="s">
+      <c r="AG7" s="35"/>
+      <c r="AH7" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="AI7" s="31"/>
-      <c r="AJ7" s="30" t="s">
+      <c r="AI7" s="35"/>
+      <c r="AJ7" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="AK7" s="31"/>
-      <c r="AL7" s="30" t="s">
+      <c r="AK7" s="35"/>
+      <c r="AL7" s="34" t="s">
+        <v>84</v>
+      </c>
+      <c r="AM7" s="35"/>
+      <c r="AN7" s="34" t="s">
         <v>85</v>
       </c>
-      <c r="AM7" s="31"/>
-      <c r="AN7" s="30" t="s">
+      <c r="AO7" s="35"/>
+      <c r="AP7" s="34" t="s">
         <v>86</v>
       </c>
-      <c r="AO7" s="31"/>
-      <c r="AP7" s="30" t="s">
+      <c r="AQ7" s="35"/>
+      <c r="AR7" s="34" t="s">
+        <v>107</v>
+      </c>
+      <c r="AS7" s="35"/>
+      <c r="AT7" s="34" t="s">
         <v>87</v>
       </c>
-      <c r="AQ7" s="31"/>
-      <c r="AR7" s="30" t="s">
-        <v>108</v>
-      </c>
-      <c r="AS7" s="31"/>
-      <c r="AT7" s="30" t="s">
+      <c r="AU7" s="35"/>
+      <c r="AV7" s="34" t="s">
         <v>88</v>
       </c>
-      <c r="AU7" s="31"/>
-      <c r="AV7" s="30" t="s">
+      <c r="AW7" s="35"/>
+      <c r="AX7" s="29" t="s">
         <v>89</v>
       </c>
-      <c r="AW7" s="31"/>
-      <c r="AX7" s="34" t="s">
+      <c r="AY7" s="30"/>
+      <c r="AZ7" s="29" t="s">
         <v>90</v>
       </c>
-      <c r="AY7" s="35"/>
-      <c r="AZ7" s="34" t="s">
-        <v>91</v>
-      </c>
-      <c r="BA7" s="35"/>
-      <c r="BB7" s="28" t="s">
+      <c r="BA7" s="30"/>
+      <c r="BB7" s="46" t="s">
         <v>21</v>
       </c>
-      <c r="BC7" s="28" t="s">
+      <c r="BC7" s="46" t="s">
         <v>22</v>
       </c>
-      <c r="BD7" s="28" t="s">
+      <c r="BD7" s="46" t="s">
         <v>23</v>
       </c>
-      <c r="BE7" s="47" t="s">
-        <v>111</v>
-      </c>
-      <c r="BF7" s="28" t="s">
-        <v>71</v>
+      <c r="BE7" s="48" t="s">
+        <v>110</v>
+      </c>
+      <c r="BF7" s="46" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="8" spans="1:58" s="25" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="33"/>
-      <c r="B8" s="33"/>
-      <c r="C8" s="33"/>
-      <c r="D8" s="33"/>
+      <c r="A8" s="37"/>
+      <c r="B8" s="37"/>
+      <c r="C8" s="37"/>
+      <c r="D8" s="37"/>
       <c r="E8" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="F8" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="F8" s="22" t="s">
-        <v>63</v>
-      </c>
-      <c r="G8" s="33"/>
-      <c r="H8" s="33"/>
-      <c r="I8" s="33"/>
-      <c r="J8" s="33"/>
-      <c r="K8" s="43"/>
-      <c r="L8" s="29"/>
-      <c r="M8" s="33"/>
-      <c r="N8" s="33"/>
-      <c r="O8" s="33"/>
-      <c r="P8" s="33"/>
-      <c r="Q8" s="33"/>
-      <c r="R8" s="46"/>
-      <c r="S8" s="33"/>
-      <c r="T8" s="46"/>
-      <c r="U8" s="46"/>
-      <c r="V8" s="46"/>
-      <c r="W8" s="46"/>
-      <c r="X8" s="46"/>
-      <c r="Y8" s="33"/>
+      <c r="G8" s="37"/>
+      <c r="H8" s="37"/>
+      <c r="I8" s="37"/>
+      <c r="J8" s="37"/>
+      <c r="K8" s="45"/>
+      <c r="L8" s="47"/>
+      <c r="M8" s="37"/>
+      <c r="N8" s="37"/>
+      <c r="O8" s="37"/>
+      <c r="P8" s="37"/>
+      <c r="Q8" s="37"/>
+      <c r="R8" s="33"/>
+      <c r="S8" s="37"/>
+      <c r="T8" s="33"/>
+      <c r="U8" s="33"/>
+      <c r="V8" s="33"/>
+      <c r="W8" s="33"/>
+      <c r="X8" s="33"/>
+      <c r="Y8" s="37"/>
       <c r="Z8" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="AA8" s="23" t="s">
         <v>67</v>
       </c>
-      <c r="AA8" s="23" t="s">
+      <c r="AB8" s="23" t="s">
         <v>68</v>
       </c>
-      <c r="AB8" s="23" t="s">
+      <c r="AC8" s="23" t="s">
         <v>69</v>
-      </c>
-      <c r="AC8" s="23" t="s">
-        <v>70</v>
       </c>
       <c r="AD8" s="22" t="s">
         <v>24</v>
@@ -1332,46 +1332,46 @@
         <v>25</v>
       </c>
       <c r="AP8" s="24" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AQ8" s="24" t="s">
         <v>25</v>
       </c>
       <c r="AR8" s="24" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AS8" s="24" t="s">
         <v>25</v>
       </c>
       <c r="AT8" s="24" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AU8" s="24" t="s">
         <v>25</v>
       </c>
       <c r="AV8" s="24" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AW8" s="24" t="s">
         <v>25</v>
       </c>
       <c r="AX8" s="22" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AY8" s="22" t="s">
         <v>25</v>
       </c>
       <c r="AZ8" s="22" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="BA8" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="BB8" s="29"/>
-      <c r="BC8" s="29"/>
-      <c r="BD8" s="29"/>
-      <c r="BE8" s="48"/>
-      <c r="BF8" s="29"/>
+      <c r="BB8" s="47"/>
+      <c r="BC8" s="47"/>
+      <c r="BD8" s="47"/>
+      <c r="BE8" s="49"/>
+      <c r="BF8" s="47"/>
     </row>
     <row r="9" spans="1:58" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="21">
@@ -1551,185 +1551,185 @@
     </row>
     <row r="10" spans="1:58" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="C10" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="D10" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="E10" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="G10" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E10" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="G10" s="2" t="s">
+      <c r="H10" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="I10" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="H10" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="I10" s="2" t="s">
+      <c r="J10" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="K10" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="J10" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="K10" s="14" t="s">
+      <c r="L10" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="M10" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="L10" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="M10" s="2" t="s">
+      <c r="N10" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="N10" s="2" t="s">
+      <c r="O10" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="O10" s="2" t="s">
+      <c r="P10" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="P10" s="2" t="s">
+      <c r="Q10" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="R10" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="Q10" s="2" t="s">
+      <c r="S10" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="T10" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="U10" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="V10" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="W10" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="X10" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="Y10" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z10" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="AA10" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="AB10" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="AC10" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="AD10" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="R10" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="S10" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="T10" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="U10" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="V10" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="W10" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="X10" s="19" t="s">
-        <v>81</v>
-      </c>
-      <c r="Y10" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="Z10" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="AA10" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="AB10" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="AC10" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="AD10" s="2" t="s">
+      <c r="AE10" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="AE10" s="11" t="s">
+      <c r="AF10" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="AF10" s="2" t="s">
+      <c r="AG10" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="AG10" s="11" t="s">
+      <c r="AH10" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="AH10" s="2" t="s">
+      <c r="AI10" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="AI10" s="11" t="s">
+      <c r="AJ10" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="AJ10" s="2" t="s">
+      <c r="AK10" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="AK10" s="11" t="s">
+      <c r="AL10" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="AM10" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="AN10" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="AO10" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="AP10" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="AQ10" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="AR10" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="AS10" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AT10" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="AU10" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="AV10" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="AW10" s="27" t="s">
+        <v>102</v>
+      </c>
+      <c r="AX10" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AY10" s="27" t="s">
+        <v>103</v>
+      </c>
+      <c r="AZ10" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="BA10" s="27" t="s">
+        <v>104</v>
+      </c>
+      <c r="BB10" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="AL10" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="AM10" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="AN10" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="AO10" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="AP10" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="AQ10" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="AR10" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="AS10" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="AT10" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="AU10" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="AV10" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="AW10" s="27" t="s">
-        <v>103</v>
-      </c>
-      <c r="AX10" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="AY10" s="27" t="s">
-        <v>104</v>
-      </c>
-      <c r="AZ10" s="2" t="s">
+      <c r="BC10" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="BD10" s="14" t="s">
         <v>106</v>
       </c>
-      <c r="BA10" s="27" t="s">
-        <v>105</v>
-      </c>
-      <c r="BB10" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="BC10" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="BD10" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="BE10" s="49" t="s">
-        <v>112</v>
+      <c r="BE10" s="28" t="s">
+        <v>111</v>
       </c>
       <c r="BF10" s="14"/>
     </row>
     <row r="11" spans="1:58" s="15" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="37" t="s">
-        <v>27</v>
-      </c>
-      <c r="B11" s="38"/>
-      <c r="C11" s="38"/>
-      <c r="D11" s="39"/>
+      <c r="A11" s="39" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11" s="40"/>
+      <c r="C11" s="40"/>
+      <c r="D11" s="41"/>
       <c r="E11" s="16"/>
       <c r="F11" s="16"/>
       <c r="G11" s="17"/>
@@ -1852,28 +1852,31 @@
       <c r="BF11" s="18"/>
     </row>
     <row r="14" spans="1:58" x14ac:dyDescent="0.25">
-      <c r="BA14" s="36" t="s">
-        <v>29</v>
-      </c>
-      <c r="BB14" s="36"/>
-      <c r="BC14" s="36"/>
-      <c r="BD14" s="36"/>
+      <c r="BA14" s="38" t="s">
+        <v>28</v>
+      </c>
+      <c r="BB14" s="38"/>
+      <c r="BC14" s="38"/>
+      <c r="BD14" s="38"/>
     </row>
   </sheetData>
   <mergeCells count="46">
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="Z7:AC7"/>
-    <mergeCell ref="U7:U8"/>
-    <mergeCell ref="AV7:AW7"/>
-    <mergeCell ref="P7:P8"/>
-    <mergeCell ref="R7:R8"/>
-    <mergeCell ref="S7:S8"/>
-    <mergeCell ref="T7:T8"/>
-    <mergeCell ref="O7:O8"/>
-    <mergeCell ref="Q7:Q8"/>
-    <mergeCell ref="V7:V8"/>
-    <mergeCell ref="W7:W8"/>
-    <mergeCell ref="X7:X8"/>
+    <mergeCell ref="BC7:BC8"/>
+    <mergeCell ref="BD7:BD8"/>
+    <mergeCell ref="BF7:BF8"/>
+    <mergeCell ref="AF7:AG7"/>
+    <mergeCell ref="AD7:AE7"/>
+    <mergeCell ref="AZ7:BA7"/>
+    <mergeCell ref="BB7:BB8"/>
+    <mergeCell ref="BE7:BE8"/>
+    <mergeCell ref="AX7:AY7"/>
+    <mergeCell ref="AH7:AI7"/>
+    <mergeCell ref="AL7:AM7"/>
+    <mergeCell ref="AN7:AO7"/>
+    <mergeCell ref="AP7:AQ7"/>
+    <mergeCell ref="AT7:AU7"/>
+    <mergeCell ref="AJ7:AK7"/>
+    <mergeCell ref="AR7:AS7"/>
     <mergeCell ref="BA14:BD14"/>
     <mergeCell ref="A11:D11"/>
     <mergeCell ref="G2:O2"/>
@@ -1890,23 +1893,20 @@
     <mergeCell ref="L7:L8"/>
     <mergeCell ref="M7:M8"/>
     <mergeCell ref="N7:N8"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="Z7:AC7"/>
+    <mergeCell ref="U7:U8"/>
+    <mergeCell ref="AV7:AW7"/>
+    <mergeCell ref="P7:P8"/>
+    <mergeCell ref="R7:R8"/>
+    <mergeCell ref="S7:S8"/>
+    <mergeCell ref="T7:T8"/>
+    <mergeCell ref="O7:O8"/>
+    <mergeCell ref="Q7:Q8"/>
+    <mergeCell ref="V7:V8"/>
+    <mergeCell ref="W7:W8"/>
+    <mergeCell ref="X7:X8"/>
     <mergeCell ref="Y7:Y8"/>
-    <mergeCell ref="AX7:AY7"/>
-    <mergeCell ref="AH7:AI7"/>
-    <mergeCell ref="AL7:AM7"/>
-    <mergeCell ref="AN7:AO7"/>
-    <mergeCell ref="AP7:AQ7"/>
-    <mergeCell ref="AT7:AU7"/>
-    <mergeCell ref="AJ7:AK7"/>
-    <mergeCell ref="AR7:AS7"/>
-    <mergeCell ref="BC7:BC8"/>
-    <mergeCell ref="BD7:BD8"/>
-    <mergeCell ref="BF7:BF8"/>
-    <mergeCell ref="AF7:AG7"/>
-    <mergeCell ref="AD7:AE7"/>
-    <mergeCell ref="AZ7:BA7"/>
-    <mergeCell ref="BB7:BB8"/>
-    <mergeCell ref="BE7:BE8"/>
   </mergeCells>
   <pageMargins left="0" right="0" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" r:id="rId1"/>

--- a/MedicalLink/Templates/BC_PhauThuat_YeuCau.xlsx
+++ b/MedicalLink/Templates/BC_PhauThuat_YeuCau.xlsx
@@ -653,12 +653,60 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="49" fontId="7" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -666,54 +714,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="7" fillId="4" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1000,7 +1000,7 @@
   <dimension ref="A1:BF14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7:D8"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1062,17 +1062,17 @@
       <c r="A2" s="7"/>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
-      <c r="G2" s="42" t="s">
+      <c r="G2" s="41" t="s">
         <v>83</v>
       </c>
-      <c r="H2" s="42"/>
-      <c r="I2" s="42"/>
-      <c r="J2" s="42"/>
-      <c r="K2" s="42"/>
-      <c r="L2" s="42"/>
-      <c r="M2" s="42"/>
-      <c r="N2" s="42"/>
-      <c r="O2" s="42"/>
+      <c r="H2" s="41"/>
+      <c r="I2" s="41"/>
+      <c r="J2" s="41"/>
+      <c r="K2" s="41"/>
+      <c r="L2" s="41"/>
+      <c r="M2" s="41"/>
+      <c r="N2" s="41"/>
+      <c r="O2" s="41"/>
       <c r="R2" s="10"/>
       <c r="T2" s="10"/>
       <c r="U2" s="10"/>
@@ -1096,193 +1096,193 @@
       <c r="BE2" s="13"/>
     </row>
     <row r="3" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G3" s="43" t="s">
+      <c r="G3" s="42" t="s">
         <v>27</v>
       </c>
-      <c r="H3" s="43"/>
-      <c r="I3" s="43"/>
-      <c r="J3" s="43"/>
-      <c r="K3" s="43"/>
-      <c r="L3" s="43"/>
-      <c r="M3" s="43"/>
-      <c r="N3" s="43"/>
-      <c r="O3" s="43"/>
+      <c r="H3" s="42"/>
+      <c r="I3" s="42"/>
+      <c r="J3" s="42"/>
+      <c r="K3" s="42"/>
+      <c r="L3" s="42"/>
+      <c r="M3" s="42"/>
+      <c r="N3" s="42"/>
+      <c r="O3" s="42"/>
     </row>
     <row r="4" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="7" spans="1:58" s="3" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="36" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="36" t="s">
+      <c r="A7" s="43" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="36" t="s">
+      <c r="C7" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="D7" s="36" t="s">
+      <c r="D7" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="E7" s="29" t="s">
+      <c r="E7" s="33" t="s">
         <v>60</v>
       </c>
-      <c r="F7" s="30"/>
-      <c r="G7" s="36" t="s">
+      <c r="F7" s="34"/>
+      <c r="G7" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="H7" s="36" t="s">
+      <c r="H7" s="43" t="s">
         <v>81</v>
       </c>
-      <c r="I7" s="36" t="s">
+      <c r="I7" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="J7" s="36" t="s">
+      <c r="J7" s="43" t="s">
         <v>58</v>
       </c>
-      <c r="K7" s="44" t="s">
+      <c r="K7" s="45" t="s">
         <v>6</v>
       </c>
-      <c r="L7" s="46" t="s">
+      <c r="L7" s="29" t="s">
         <v>56</v>
       </c>
-      <c r="M7" s="36" t="s">
+      <c r="M7" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="N7" s="36" t="s">
+      <c r="N7" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="O7" s="36" t="s">
+      <c r="O7" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="P7" s="36" t="s">
+      <c r="P7" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="Q7" s="36" t="s">
+      <c r="Q7" s="43" t="s">
         <v>16</v>
       </c>
-      <c r="R7" s="32" t="s">
+      <c r="R7" s="48" t="s">
         <v>11</v>
       </c>
-      <c r="S7" s="36" t="s">
+      <c r="S7" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="T7" s="32" t="s">
+      <c r="T7" s="48" t="s">
         <v>13</v>
       </c>
-      <c r="U7" s="32" t="s">
+      <c r="U7" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="V7" s="32" t="s">
+      <c r="V7" s="48" t="s">
         <v>75</v>
       </c>
-      <c r="W7" s="32" t="s">
+      <c r="W7" s="48" t="s">
         <v>76</v>
       </c>
-      <c r="X7" s="32" t="s">
+      <c r="X7" s="48" t="s">
         <v>77</v>
       </c>
-      <c r="Y7" s="36" t="s">
+      <c r="Y7" s="43" t="s">
         <v>15</v>
       </c>
-      <c r="Z7" s="31" t="s">
+      <c r="Z7" s="47" t="s">
         <v>65</v>
       </c>
-      <c r="AA7" s="31"/>
-      <c r="AB7" s="31"/>
-      <c r="AC7" s="31"/>
-      <c r="AD7" s="34" t="s">
+      <c r="AA7" s="47"/>
+      <c r="AB7" s="47"/>
+      <c r="AC7" s="47"/>
+      <c r="AD7" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="AE7" s="35"/>
-      <c r="AF7" s="34" t="s">
+      <c r="AE7" s="32"/>
+      <c r="AF7" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="AG7" s="35"/>
-      <c r="AH7" s="34" t="s">
+      <c r="AG7" s="32"/>
+      <c r="AH7" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="AI7" s="35"/>
-      <c r="AJ7" s="34" t="s">
+      <c r="AI7" s="32"/>
+      <c r="AJ7" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="AK7" s="35"/>
-      <c r="AL7" s="34" t="s">
+      <c r="AK7" s="32"/>
+      <c r="AL7" s="31" t="s">
         <v>84</v>
       </c>
-      <c r="AM7" s="35"/>
-      <c r="AN7" s="34" t="s">
+      <c r="AM7" s="32"/>
+      <c r="AN7" s="31" t="s">
         <v>85</v>
       </c>
-      <c r="AO7" s="35"/>
-      <c r="AP7" s="34" t="s">
+      <c r="AO7" s="32"/>
+      <c r="AP7" s="31" t="s">
         <v>86</v>
       </c>
-      <c r="AQ7" s="35"/>
-      <c r="AR7" s="34" t="s">
+      <c r="AQ7" s="32"/>
+      <c r="AR7" s="31" t="s">
         <v>107</v>
       </c>
-      <c r="AS7" s="35"/>
-      <c r="AT7" s="34" t="s">
+      <c r="AS7" s="32"/>
+      <c r="AT7" s="31" t="s">
         <v>87</v>
       </c>
-      <c r="AU7" s="35"/>
-      <c r="AV7" s="34" t="s">
+      <c r="AU7" s="32"/>
+      <c r="AV7" s="31" t="s">
         <v>88</v>
       </c>
-      <c r="AW7" s="35"/>
-      <c r="AX7" s="29" t="s">
+      <c r="AW7" s="32"/>
+      <c r="AX7" s="33" t="s">
         <v>89</v>
       </c>
-      <c r="AY7" s="30"/>
-      <c r="AZ7" s="29" t="s">
+      <c r="AY7" s="34"/>
+      <c r="AZ7" s="33" t="s">
         <v>90</v>
       </c>
-      <c r="BA7" s="30"/>
-      <c r="BB7" s="46" t="s">
+      <c r="BA7" s="34"/>
+      <c r="BB7" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="BC7" s="46" t="s">
+      <c r="BC7" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="BD7" s="46" t="s">
+      <c r="BD7" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="BE7" s="48" t="s">
+      <c r="BE7" s="35" t="s">
         <v>110</v>
       </c>
-      <c r="BF7" s="46" t="s">
+      <c r="BF7" s="29" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="8" spans="1:58" s="25" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="37"/>
-      <c r="B8" s="37"/>
-      <c r="C8" s="37"/>
-      <c r="D8" s="37"/>
+      <c r="A8" s="44"/>
+      <c r="B8" s="44"/>
+      <c r="C8" s="44"/>
+      <c r="D8" s="44"/>
       <c r="E8" s="22" t="s">
         <v>61</v>
       </c>
       <c r="F8" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="G8" s="37"/>
-      <c r="H8" s="37"/>
-      <c r="I8" s="37"/>
-      <c r="J8" s="37"/>
-      <c r="K8" s="45"/>
-      <c r="L8" s="47"/>
-      <c r="M8" s="37"/>
-      <c r="N8" s="37"/>
-      <c r="O8" s="37"/>
-      <c r="P8" s="37"/>
-      <c r="Q8" s="37"/>
-      <c r="R8" s="33"/>
-      <c r="S8" s="37"/>
-      <c r="T8" s="33"/>
-      <c r="U8" s="33"/>
-      <c r="V8" s="33"/>
-      <c r="W8" s="33"/>
-      <c r="X8" s="33"/>
-      <c r="Y8" s="37"/>
+      <c r="G8" s="44"/>
+      <c r="H8" s="44"/>
+      <c r="I8" s="44"/>
+      <c r="J8" s="44"/>
+      <c r="K8" s="46"/>
+      <c r="L8" s="30"/>
+      <c r="M8" s="44"/>
+      <c r="N8" s="44"/>
+      <c r="O8" s="44"/>
+      <c r="P8" s="44"/>
+      <c r="Q8" s="44"/>
+      <c r="R8" s="49"/>
+      <c r="S8" s="44"/>
+      <c r="T8" s="49"/>
+      <c r="U8" s="49"/>
+      <c r="V8" s="49"/>
+      <c r="W8" s="49"/>
+      <c r="X8" s="49"/>
+      <c r="Y8" s="44"/>
       <c r="Z8" s="23" t="s">
         <v>66</v>
       </c>
@@ -1367,11 +1367,11 @@
       <c r="BA8" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="BB8" s="47"/>
-      <c r="BC8" s="47"/>
-      <c r="BD8" s="47"/>
-      <c r="BE8" s="49"/>
-      <c r="BF8" s="47"/>
+      <c r="BB8" s="30"/>
+      <c r="BC8" s="30"/>
+      <c r="BD8" s="30"/>
+      <c r="BE8" s="36"/>
+      <c r="BF8" s="30"/>
     </row>
     <row r="9" spans="1:58" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="21">
@@ -1724,12 +1724,12 @@
       <c r="BF10" s="14"/>
     </row>
     <row r="11" spans="1:58" s="15" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="39" t="s">
+      <c r="A11" s="38" t="s">
         <v>26</v>
       </c>
-      <c r="B11" s="40"/>
-      <c r="C11" s="40"/>
-      <c r="D11" s="41"/>
+      <c r="B11" s="39"/>
+      <c r="C11" s="39"/>
+      <c r="D11" s="40"/>
       <c r="E11" s="16"/>
       <c r="F11" s="16"/>
       <c r="G11" s="17"/>
@@ -1852,15 +1852,45 @@
       <c r="BF11" s="18"/>
     </row>
     <row r="14" spans="1:58" x14ac:dyDescent="0.25">
-      <c r="BA14" s="38" t="s">
+      <c r="BA14" s="37" t="s">
         <v>28</v>
       </c>
-      <c r="BB14" s="38"/>
-      <c r="BC14" s="38"/>
-      <c r="BD14" s="38"/>
+      <c r="BB14" s="37"/>
+      <c r="BC14" s="37"/>
+      <c r="BD14" s="37"/>
     </row>
   </sheetData>
   <mergeCells count="46">
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="Z7:AC7"/>
+    <mergeCell ref="U7:U8"/>
+    <mergeCell ref="AV7:AW7"/>
+    <mergeCell ref="P7:P8"/>
+    <mergeCell ref="R7:R8"/>
+    <mergeCell ref="S7:S8"/>
+    <mergeCell ref="T7:T8"/>
+    <mergeCell ref="O7:O8"/>
+    <mergeCell ref="Q7:Q8"/>
+    <mergeCell ref="V7:V8"/>
+    <mergeCell ref="W7:W8"/>
+    <mergeCell ref="X7:X8"/>
+    <mergeCell ref="Y7:Y8"/>
+    <mergeCell ref="BA14:BD14"/>
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="G2:O2"/>
+    <mergeCell ref="G3:O3"/>
+    <mergeCell ref="J7:J8"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="I7:I8"/>
+    <mergeCell ref="K7:K8"/>
+    <mergeCell ref="L7:L8"/>
+    <mergeCell ref="M7:M8"/>
+    <mergeCell ref="N7:N8"/>
     <mergeCell ref="BC7:BC8"/>
     <mergeCell ref="BD7:BD8"/>
     <mergeCell ref="BF7:BF8"/>
@@ -1877,38 +1907,8 @@
     <mergeCell ref="AT7:AU7"/>
     <mergeCell ref="AJ7:AK7"/>
     <mergeCell ref="AR7:AS7"/>
-    <mergeCell ref="BA14:BD14"/>
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="G2:O2"/>
-    <mergeCell ref="G3:O3"/>
-    <mergeCell ref="J7:J8"/>
-    <mergeCell ref="H7:H8"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="I7:I8"/>
-    <mergeCell ref="K7:K8"/>
-    <mergeCell ref="L7:L8"/>
-    <mergeCell ref="M7:M8"/>
-    <mergeCell ref="N7:N8"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="Z7:AC7"/>
-    <mergeCell ref="U7:U8"/>
-    <mergeCell ref="AV7:AW7"/>
-    <mergeCell ref="P7:P8"/>
-    <mergeCell ref="R7:R8"/>
-    <mergeCell ref="S7:S8"/>
-    <mergeCell ref="T7:T8"/>
-    <mergeCell ref="O7:O8"/>
-    <mergeCell ref="Q7:Q8"/>
-    <mergeCell ref="V7:V8"/>
-    <mergeCell ref="W7:W8"/>
-    <mergeCell ref="X7:X8"/>
-    <mergeCell ref="Y7:Y8"/>
   </mergeCells>
   <pageMargins left="0" right="0" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
-  <pageSetup orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="8" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>